--- a/results/60/result.xlsx
+++ b/results/60/result.xlsx
@@ -615,8 +615,8 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>1</v>
+      <c r="B3" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>0</v>
@@ -1000,20 +1000,20 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1</v>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>1</v>
@@ -2167,59 +2167,59 @@
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5" t="n">
-        <v>0</v>
+      <c r="F23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="X23" s="5" t="n">
         <v>0</v>
@@ -3094,11 +3094,11 @@
       <c r="F35" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.9999999999998779</v>
+      <c r="G35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>1</v>
@@ -3145,11 +3145,11 @@
       <c r="W35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="X35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="4" t="n">
-        <v>1</v>
+      <c r="X35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3171,8 +3171,8 @@
       <c r="F36" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="5" t="n">
-        <v>0</v>
+      <c r="G36" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="H36" s="4" t="n">
         <v>1</v>
@@ -3225,8 +3225,8 @@
       <c r="X36" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Y36" t="n">
-        <v>1.000000000000034</v>
+      <c r="Y36" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3793,8 +3793,8 @@
       <c r="H44" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I44" s="5" t="n">
-        <v>0</v>
+      <c r="I44" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1</v>
@@ -3870,11 +3870,11 @@
       <c r="H45" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0.9999999999999879</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.9999999999999879</v>
+      <c r="I45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>1</v>
@@ -4095,8 +4095,8 @@
       <c r="F48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G48" s="4" t="n">
-        <v>1</v>
+      <c r="G48" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>1</v>
@@ -4226,8 +4226,8 @@
       <c r="X49" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Y49" s="5" t="n">
-        <v>0</v>
+      <c r="Y49" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4341,11 +4341,11 @@
       <c r="K51" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" s="4" t="n">
-        <v>1</v>
+      <c r="L51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="N51" s="5" t="n">
         <v>0</v>
@@ -4534,8 +4534,8 @@
       <c r="X53" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" s="4" t="n">
-        <v>1</v>
+      <c r="Y53" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4557,8 +4557,8 @@
       <c r="F54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="5" t="n">
-        <v>0</v>
+      <c r="G54" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>1</v>
@@ -4634,8 +4634,8 @@
       <c r="F55" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>1</v>
+      <c r="G55" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="H55" s="4" t="n">
         <v>1</v>
@@ -4664,11 +4664,11 @@
       <c r="P55" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" s="4" t="n">
-        <v>1</v>
+      <c r="Q55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="S55" s="4" t="n">
         <v>1</v>
@@ -4685,11 +4685,11 @@
       <c r="W55" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="X55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="5" t="n">
-        <v>0</v>
+      <c r="X55" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.000000000000016</v>
       </c>
     </row>
     <row r="56">
@@ -4927,8 +4927,8 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="n">
-        <v>1</v>
+      <c r="B59" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
@@ -5215,14 +5215,14 @@
       <c r="T62" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="U62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V62" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W62" s="4" t="n">
-        <v>1</v>
+      <c r="U62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="X62" s="5" t="n">
         <v>0</v>
@@ -5268,8 +5268,8 @@
       <c r="L63" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M63" s="4" t="n">
-        <v>1</v>
+      <c r="M63" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="N63" s="5" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5805,7 +5805,7 @@
         <v>500</v>
       </c>
       <c r="E5" t="n">
-        <v>380.9199999999943</v>
+        <v>420.9200000000002</v>
       </c>
       <c r="F5" t="n">
         <v>500</v>
@@ -6027,19 +6027,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>40</v>
@@ -6051,7 +6051,7 @@
         <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K8" t="n">
         <v>40</v>
@@ -6060,7 +6060,7 @@
         <v>40</v>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N8" t="n">
         <v>40</v>
@@ -6084,10 +6084,10 @@
         <v>40</v>
       </c>
       <c r="U8" t="n">
-        <v>53.3528695581325</v>
+        <v>52</v>
       </c>
       <c r="V8" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W8" t="n">
         <v>40</v>
@@ -6350,10 +6350,10 @@
         <v>140</v>
       </c>
       <c r="G12" t="n">
-        <v>236.5800000000048</v>
+        <v>236.5799999999998</v>
       </c>
       <c r="H12" t="n">
-        <v>341.5800000000048</v>
+        <v>341.5799999999998</v>
       </c>
       <c r="I12" t="n">
         <v>350</v>
@@ -6404,7 +6404,7 @@
         <v>337.5100000000002</v>
       </c>
       <c r="Y12" t="n">
-        <v>239.7899999999986</v>
+        <v>239.7899999999993</v>
       </c>
     </row>
     <row r="13">
@@ -6599,7 +6599,7 @@
         <v>40</v>
       </c>
       <c r="M15" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N15" t="n">
         <v>40</v>
@@ -6741,19 +6741,19 @@
         <v>40</v>
       </c>
       <c r="I17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" t="n">
         <v>52</v>
       </c>
-      <c r="J17" t="n">
-        <v>40</v>
-      </c>
       <c r="K17" t="n">
-        <v>51.14999999999964</v>
+        <v>40.33999999999924</v>
       </c>
       <c r="L17" t="n">
+        <v>40.85999999999967</v>
+      </c>
+      <c r="M17" t="n">
         <v>52</v>
-      </c>
-      <c r="M17" t="n">
-        <v>47.68000000000029</v>
       </c>
       <c r="N17" t="n">
         <v>40</v>
@@ -6780,7 +6780,7 @@
         <v>52</v>
       </c>
       <c r="V17" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W17" t="n">
         <v>40</v>
@@ -7194,58 +7194,58 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>46.68000000000029</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>46.78999999999996</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -7283,7 +7283,7 @@
         <v>40</v>
       </c>
       <c r="J24" t="n">
-        <v>40</v>
+        <v>48.43000000000012</v>
       </c>
       <c r="K24" t="n">
         <v>40</v>
@@ -7292,7 +7292,7 @@
         <v>40</v>
       </c>
       <c r="M24" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N24" t="n">
         <v>40</v>
@@ -7319,7 +7319,7 @@
         <v>52</v>
       </c>
       <c r="V24" t="n">
-        <v>49.78999999999996</v>
+        <v>52</v>
       </c>
       <c r="W24" t="n">
         <v>40</v>
@@ -7336,10 +7336,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C25" t="n">
-        <v>80</v>
+        <v>85.01000000000022</v>
       </c>
       <c r="D25" t="n">
         <v>80</v>
@@ -7348,10 +7348,10 @@
         <v>80</v>
       </c>
       <c r="F25" t="n">
-        <v>79.99999999999959</v>
+        <v>80</v>
       </c>
       <c r="G25" t="n">
-        <v>140.0000000000005</v>
+        <v>140</v>
       </c>
       <c r="H25" t="n">
         <v>200</v>
@@ -7413,22 +7413,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>125.2200000000003</v>
+        <v>80</v>
       </c>
       <c r="C26" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D26" t="n">
-        <v>80</v>
+        <v>79.99999999999999</v>
       </c>
       <c r="E26" t="n">
         <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>83.12999999999477</v>
+        <v>83.13000000000022</v>
       </c>
       <c r="G26" t="n">
-        <v>143.1299999999948</v>
+        <v>143.1300000000002</v>
       </c>
       <c r="H26" t="n">
         <v>200</v>
@@ -7570,16 +7570,16 @@
         <v>420</v>
       </c>
       <c r="C28" t="n">
-        <v>409.0100000000002</v>
+        <v>420</v>
       </c>
       <c r="D28" t="n">
-        <v>368.6399999999998</v>
+        <v>408.6399999999998</v>
       </c>
       <c r="E28" t="n">
-        <v>284.3400000000059</v>
+        <v>294</v>
       </c>
       <c r="F28" t="n">
-        <v>410.3400000000059</v>
+        <v>420</v>
       </c>
       <c r="G28" t="n">
         <v>420</v>
@@ -7644,7 +7644,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>420</v>
+        <v>395.2200000000003</v>
       </c>
       <c r="C29" t="n">
         <v>420</v>
@@ -7653,10 +7653,10 @@
         <v>369.6</v>
       </c>
       <c r="E29" t="n">
-        <v>294</v>
+        <v>284.34</v>
       </c>
       <c r="F29" t="n">
-        <v>420</v>
+        <v>410.34</v>
       </c>
       <c r="G29" t="n">
         <v>420</v>
@@ -8121,10 +8121,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>39.99999999999511</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>40</v>
@@ -8133,13 +8133,13 @@
         <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L35" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M35" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N35" t="n">
         <v>40</v>
@@ -8166,16 +8166,16 @@
         <v>40</v>
       </c>
       <c r="V35" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W35" t="n">
         <v>40</v>
       </c>
       <c r="X35" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
         <v>40</v>
@@ -8207,16 +8207,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K36" t="n">
         <v>40</v>
       </c>
       <c r="L36" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="M36" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N36" t="n">
         <v>40</v>
@@ -8243,7 +8243,7 @@
         <v>40</v>
       </c>
       <c r="V36" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W36" t="n">
         <v>40</v>
@@ -8252,7 +8252,7 @@
         <v>40</v>
       </c>
       <c r="Y36" t="n">
-        <v>40.00000000000134</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -8397,7 +8397,7 @@
         <v>40</v>
       </c>
       <c r="V38" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W38" t="n">
         <v>40</v>
@@ -8820,10 +8820,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>273.21</v>
       </c>
       <c r="J44" t="n">
-        <v>252.4300000000017</v>
+        <v>300</v>
       </c>
       <c r="K44" t="n">
         <v>300</v>
@@ -8835,13 +8835,13 @@
         <v>300</v>
       </c>
       <c r="N44" t="n">
-        <v>210</v>
+        <v>228.6400000000003</v>
       </c>
       <c r="O44" t="n">
-        <v>120</v>
+        <v>138.6400000000003</v>
       </c>
       <c r="P44" t="n">
-        <v>156</v>
+        <v>190.7700000000004</v>
       </c>
       <c r="Q44" t="n">
         <v>120</v>
@@ -8850,10 +8850,10 @@
         <v>120</v>
       </c>
       <c r="S44" t="n">
-        <v>138</v>
+        <v>121.7399999999998</v>
       </c>
       <c r="T44" t="n">
-        <v>228</v>
+        <v>211.7399999999998</v>
       </c>
       <c r="U44" t="n">
         <v>300</v>
@@ -8897,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>227.9999999999986</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>300</v>
@@ -8918,7 +8918,7 @@
         <v>138</v>
       </c>
       <c r="P45" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="Q45" t="n">
         <v>120</v>
@@ -8927,10 +8927,10 @@
         <v>120</v>
       </c>
       <c r="S45" t="n">
-        <v>120.9749999999999</v>
+        <v>138</v>
       </c>
       <c r="T45" t="n">
-        <v>210.9749999999999</v>
+        <v>228</v>
       </c>
       <c r="U45" t="n">
         <v>300</v>
@@ -8939,7 +8939,7 @@
         <v>300</v>
       </c>
       <c r="W45" t="n">
-        <v>279.8599999999997</v>
+        <v>264.8599999999997</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>228</v>
+        <v>300.0000000000002</v>
       </c>
       <c r="K46" t="n">
         <v>300</v>
@@ -8995,7 +8995,7 @@
         <v>138</v>
       </c>
       <c r="P46" t="n">
-        <v>170.7700000000004</v>
+        <v>192</v>
       </c>
       <c r="Q46" t="n">
         <v>120</v>
@@ -9004,10 +9004,10 @@
         <v>120</v>
       </c>
       <c r="S46" t="n">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="T46" t="n">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="U46" t="n">
         <v>300</v>
@@ -9122,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>40</v>
@@ -9164,7 +9164,7 @@
         <v>40</v>
       </c>
       <c r="U48" t="n">
-        <v>40</v>
+        <v>48.85999999999967</v>
       </c>
       <c r="V48" t="n">
         <v>40</v>
@@ -9208,16 +9208,16 @@
         <v>40</v>
       </c>
       <c r="J49" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K49" t="n">
         <v>40</v>
       </c>
       <c r="L49" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M49" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N49" t="n">
         <v>40</v>
@@ -9241,10 +9241,10 @@
         <v>40</v>
       </c>
       <c r="U49" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="V49" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W49" t="n">
         <v>40</v>
@@ -9253,7 +9253,7 @@
         <v>40</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
@@ -9368,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -9472,7 +9472,7 @@
         <v>40</v>
       </c>
       <c r="U52" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="V52" t="n">
         <v>40</v>
@@ -9549,7 +9549,7 @@
         <v>40</v>
       </c>
       <c r="U53" t="n">
-        <v>50.50713044186717</v>
+        <v>52</v>
       </c>
       <c r="V53" t="n">
         <v>40</v>
@@ -9561,7 +9561,7 @@
         <v>40</v>
       </c>
       <c r="Y53" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -9584,13 +9584,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
         <v>40</v>
       </c>
       <c r="I54" t="n">
-        <v>41.21000000000004</v>
+        <v>40</v>
       </c>
       <c r="J54" t="n">
         <v>40</v>
@@ -9602,7 +9602,7 @@
         <v>52</v>
       </c>
       <c r="M54" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N54" t="n">
         <v>40</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>40</v>
@@ -9673,13 +9673,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="n">
+        <v>40</v>
+      </c>
+      <c r="L55" t="n">
         <v>52</v>
       </c>
-      <c r="L55" t="n">
-        <v>48.85999999999974</v>
-      </c>
       <c r="M55" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="N55" t="n">
         <v>40</v>
@@ -9691,10 +9691,10 @@
         <v>40</v>
       </c>
       <c r="Q55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>40</v>
@@ -9706,16 +9706,16 @@
         <v>52</v>
       </c>
       <c r="V55" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="W55" t="n">
         <v>40</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>40.00000000000063</v>
       </c>
     </row>
     <row r="56">
@@ -9954,7 +9954,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>130</v>
@@ -10138,7 +10138,7 @@
         <v>80</v>
       </c>
       <c r="L61" t="n">
-        <v>79.99999999999993</v>
+        <v>80</v>
       </c>
       <c r="M61" t="n">
         <v>80</v>
@@ -10242,13 +10242,13 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>55</v>
       </c>
       <c r="M63" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -10547,17 +10547,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>1</v>
+      <c r="A2" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>300</v>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>300</v>
+        <v>294.8100000000004</v>
       </c>
     </row>
     <row r="12">
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>247.1499999999996</v>
+        <v>188.5099999999993</v>
       </c>
     </row>
     <row r="15">
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>118.6400000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.7649999999999</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>295.4450000000002</v>
+        <v>236.6800000000003</v>
       </c>
     </row>
     <row r="21">

--- a/results/60/result.xlsx
+++ b/results/60/result.xlsx
@@ -590,8 +590,8 @@
       <c r="T2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" s="2" t="n">
-        <v>0</v>
+      <c r="U2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="V2" s="2" t="n">
         <v>0</v>
@@ -1129,8 +1129,8 @@
       <c r="T9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="n">
-        <v>1</v>
+      <c r="U9" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V9" s="2" t="n">
         <v>0</v>
@@ -1244,8 +1244,8 @@
       <c r="G11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
+      <c r="H11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>1</v>
@@ -3166,8 +3166,8 @@
       <c r="F36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>1</v>
+      <c r="G36" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>1</v>
@@ -4170,8 +4170,8 @@
       <c r="G49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0</v>
+      <c r="H49" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="I49" s="3" t="n">
         <v>1</v>
@@ -4218,8 +4218,8 @@
       <c r="W49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="X49" s="3" t="n">
-        <v>1</v>
+      <c r="X49" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="Y49" s="2" t="n">
         <v>0</v>
@@ -4449,11 +4449,11 @@
       <c r="W52" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="X52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="3" t="n">
-        <v>1</v>
+      <c r="X52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4529,8 +4529,8 @@
       <c r="X53" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Y53" s="2" t="n">
-        <v>0</v>
+      <c r="Y53" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4632,8 +4632,8 @@
       <c r="G55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H55" s="2" t="n">
-        <v>0</v>
+      <c r="H55" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="I55" s="3" t="n">
         <v>1</v>
@@ -4659,14 +4659,14 @@
       <c r="P55" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
+      <c r="Q55" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="S55" s="3" t="n">
-        <v>1</v>
+      <c r="S55" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="T55" s="3" t="n">
         <v>1</v>
@@ -5130,8 +5130,8 @@
       <c r="S61" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="T61" s="3" t="n">
-        <v>1</v>
+      <c r="T61" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="U61" s="3" t="n">
         <v>1</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>208.2134365593924</v>
+        <v>222.1911451754233</v>
       </c>
       <c r="J6" t="n">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
         <v>300</v>
@@ -5904,25 +5904,25 @@
         <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4200482966834</v>
+        <v>219.7099348590678</v>
       </c>
       <c r="O6" t="n">
-        <v>179.4200482966834</v>
+        <v>129.7099348590678</v>
       </c>
       <c r="P6" t="n">
-        <v>228</v>
+        <v>161.9135946317416</v>
       </c>
       <c r="Q6" t="n">
-        <v>138</v>
+        <v>124.0043929848387</v>
       </c>
       <c r="R6" t="n">
         <v>120</v>
       </c>
       <c r="S6" t="n">
-        <v>210</v>
+        <v>192.5464984370371</v>
       </c>
       <c r="T6" t="n">
-        <v>300</v>
+        <v>282.5464984370371</v>
       </c>
       <c r="U6" t="n">
         <v>300</v>
@@ -5931,7 +5931,7 @@
         <v>300</v>
       </c>
       <c r="W6" t="n">
-        <v>298.0441223557697</v>
+        <v>298.5123141635764</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -6046,19 +6046,19 @@
         <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>51.75626840702476</v>
+        <v>48.03922261105423</v>
       </c>
       <c r="K8" t="n">
-        <v>81.75626840702476</v>
+        <v>78.03922261105423</v>
       </c>
       <c r="L8" t="n">
-        <v>92.74291765814999</v>
+        <v>97.11064860551032</v>
       </c>
       <c r="M8" t="n">
-        <v>90.73751925365444</v>
+        <v>90.91859663693128</v>
       </c>
       <c r="N8" t="n">
-        <v>60.73751925365444</v>
+        <v>60.91859663693128</v>
       </c>
       <c r="O8" t="n">
         <v>40</v>
@@ -6082,10 +6082,10 @@
         <v>100</v>
       </c>
       <c r="V8" t="n">
-        <v>88.42094364185675</v>
+        <v>78.59761159191179</v>
       </c>
       <c r="W8" t="n">
-        <v>58.42094364185675</v>
+        <v>48.59761159191179</v>
       </c>
       <c r="X8" t="n">
         <v>40</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -6271,10 +6271,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>193.958606702961</v>
       </c>
       <c r="I11" t="n">
-        <v>300</v>
+        <v>283.958606702961</v>
       </c>
       <c r="J11" t="n">
         <v>300</v>
@@ -6292,34 +6292,34 @@
         <v>300</v>
       </c>
       <c r="O11" t="n">
-        <v>291.9591218199809</v>
+        <v>300</v>
       </c>
       <c r="P11" t="n">
         <v>300</v>
       </c>
       <c r="Q11" t="n">
-        <v>281.4242459625829</v>
+        <v>241.3653574749003</v>
       </c>
       <c r="R11" t="n">
-        <v>202.9795726539427</v>
+        <v>151.3653574749003</v>
       </c>
       <c r="S11" t="n">
-        <v>292.9795726539427</v>
+        <v>241.3653574749003</v>
       </c>
       <c r="T11" t="n">
         <v>300</v>
       </c>
       <c r="U11" t="n">
-        <v>300</v>
+        <v>298.3737503696193</v>
       </c>
       <c r="V11" t="n">
         <v>300</v>
       </c>
       <c r="W11" t="n">
-        <v>258.1702464273793</v>
+        <v>300</v>
       </c>
       <c r="X11" t="n">
-        <v>168.1702464273793</v>
+        <v>233.0136150716295</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -6330,22 +6330,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>344.6682315417092</v>
+        <v>344.6682315417149</v>
       </c>
       <c r="C12" t="n">
         <v>267.265540997655</v>
       </c>
       <c r="D12" t="n">
-        <v>176.1016518090661</v>
+        <v>176.0410934703573</v>
       </c>
       <c r="E12" t="n">
         <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>237.9533783124855</v>
+        <v>236.7792889204091</v>
       </c>
       <c r="G12" t="n">
-        <v>301.5979507295801</v>
+        <v>341.7792889204091</v>
       </c>
       <c r="H12" t="n">
         <v>350</v>
@@ -6591,13 +6591,13 @@
         <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>93.16608334069187</v>
+        <v>96.47173263004233</v>
       </c>
       <c r="M15" t="n">
-        <v>91.40593720015012</v>
+        <v>91.7423070529361</v>
       </c>
       <c r="N15" t="n">
-        <v>61.40593720015012</v>
+        <v>70</v>
       </c>
       <c r="O15" t="n">
         <v>40</v>
@@ -6615,16 +6615,16 @@
         <v>40</v>
       </c>
       <c r="T15" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="U15" t="n">
-        <v>94</v>
+        <v>62.65336537457274</v>
       </c>
       <c r="V15" t="n">
-        <v>100</v>
+        <v>70.00000000000107</v>
       </c>
       <c r="W15" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="X15" t="n">
         <v>40</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>40.00000000000146</v>
       </c>
       <c r="H17" t="n">
         <v>40</v>
@@ -6769,13 +6769,13 @@
         <v>40</v>
       </c>
       <c r="T17" t="n">
-        <v>69.6497947063293</v>
+        <v>70</v>
       </c>
       <c r="U17" t="n">
-        <v>99.6497947063293</v>
+        <v>100</v>
       </c>
       <c r="V17" t="n">
-        <v>69.6497947063293</v>
+        <v>70</v>
       </c>
       <c r="W17" t="n">
         <v>40</v>
@@ -7032,7 +7032,7 @@
         <v>250</v>
       </c>
       <c r="E21" t="n">
-        <v>175</v>
+        <v>181.359445103266</v>
       </c>
       <c r="F21" t="n">
         <v>250</v>
@@ -7343,13 +7343,13 @@
         <v>80</v>
       </c>
       <c r="F25" t="n">
-        <v>92</v>
+        <v>108.3326481779796</v>
       </c>
       <c r="G25" t="n">
-        <v>152</v>
+        <v>168.3326481779796</v>
       </c>
       <c r="H25" t="n">
-        <v>177.1925147253378</v>
+        <v>200</v>
       </c>
       <c r="I25" t="n">
         <v>200</v>
@@ -7379,7 +7379,7 @@
         <v>200</v>
       </c>
       <c r="R25" t="n">
-        <v>140</v>
+        <v>178.7155482199622</v>
       </c>
       <c r="S25" t="n">
         <v>200</v>
@@ -7420,13 +7420,13 @@
         <v>80</v>
       </c>
       <c r="F26" t="n">
-        <v>88.78846944144419</v>
+        <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>148.7884694414442</v>
+        <v>140</v>
       </c>
       <c r="H26" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="I26" t="n">
         <v>200</v>
@@ -7474,10 +7474,10 @@
         <v>200</v>
       </c>
       <c r="X26" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="Y26" t="n">
-        <v>200</v>
+        <v>200.0000000000028</v>
       </c>
     </row>
     <row r="27">
@@ -7562,19 +7562,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>403.8653587490419</v>
+        <v>403.865358749038</v>
       </c>
       <c r="C28" t="n">
         <v>365.6636653868779</v>
       </c>
       <c r="D28" t="n">
-        <v>369.6</v>
+        <v>366.8568334807846</v>
       </c>
       <c r="E28" t="n">
-        <v>255.7404637672349</v>
+        <v>246.5979199726959</v>
       </c>
       <c r="F28" t="n">
-        <v>381.7404637672349</v>
+        <v>372.5979199726959</v>
       </c>
       <c r="G28" t="n">
         <v>420</v>
@@ -7645,13 +7645,13 @@
         <v>420</v>
       </c>
       <c r="D29" t="n">
-        <v>417.1925033392905</v>
+        <v>420</v>
       </c>
       <c r="E29" t="n">
-        <v>291.1925033392905</v>
+        <v>294</v>
       </c>
       <c r="F29" t="n">
-        <v>417.1925033392905</v>
+        <v>420</v>
       </c>
       <c r="G29" t="n">
         <v>420</v>
@@ -7808,16 +7808,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>39.58542916232613</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
-        <v>63.58542916232613</v>
+        <v>40.37991184486981</v>
       </c>
       <c r="I31" t="n">
-        <v>49.34401100228925</v>
+        <v>51.40819913032394</v>
       </c>
       <c r="J31" t="n">
-        <v>60.77543559817622</v>
+        <v>61.84640117117144</v>
       </c>
       <c r="K31" t="n">
         <v>80</v>
@@ -7832,22 +7832,22 @@
         <v>80</v>
       </c>
       <c r="O31" t="n">
-        <v>73.4599103840019</v>
+        <v>74.29387285654758</v>
       </c>
       <c r="P31" t="n">
-        <v>76.29167371861534</v>
+        <v>80</v>
       </c>
       <c r="Q31" t="n">
-        <v>62.76536471408919</v>
+        <v>76.38339348221929</v>
       </c>
       <c r="R31" t="n">
-        <v>53.24606667180109</v>
+        <v>65.94922188636961</v>
       </c>
       <c r="S31" t="n">
-        <v>71.20268043479344</v>
+        <v>75.0348719283454</v>
       </c>
       <c r="T31" t="n">
-        <v>76.13546072641456</v>
+        <v>80</v>
       </c>
       <c r="U31" t="n">
         <v>80</v>
@@ -7856,13 +7856,13 @@
         <v>80</v>
       </c>
       <c r="W31" t="n">
-        <v>59.90898513277129</v>
+        <v>57.54695206114921</v>
       </c>
       <c r="X31" t="n">
-        <v>48.91871936970988</v>
+        <v>38.15915257161107</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.0458767697419</v>
+        <v>50.04587676974073</v>
       </c>
     </row>
     <row r="32">
@@ -8004,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>20.91421672738851</v>
+        <v>27.34839336670447</v>
       </c>
       <c r="V33" t="n">
-        <v>12</v>
+        <v>18.34839336670447</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -8137,10 +8137,10 @@
         <v>100</v>
       </c>
       <c r="N35" t="n">
-        <v>70</v>
+        <v>72.74278378620278</v>
       </c>
       <c r="O35" t="n">
-        <v>40</v>
+        <v>42.74278378620277</v>
       </c>
       <c r="P35" t="n">
         <v>40</v>
@@ -8170,7 +8170,7 @@
         <v>40</v>
       </c>
       <c r="Y35" t="n">
-        <v>41.8072770652314</v>
+        <v>41.80727706523146</v>
       </c>
     </row>
     <row r="36">
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>40</v>
@@ -8563,76 +8563,76 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>376.6864097092492</v>
+        <v>376.6864097092474</v>
       </c>
       <c r="C41" t="n">
-        <v>376.0807936154672</v>
+        <v>376.0807936154674</v>
       </c>
       <c r="D41" t="n">
-        <v>375.3458448516434</v>
+        <v>375.3420730488579</v>
       </c>
       <c r="E41" t="n">
-        <v>372.3270328934748</v>
+        <v>372.3026349240383</v>
       </c>
       <c r="F41" t="n">
-        <v>375.7951851395452</v>
+        <v>375.7601429289156</v>
       </c>
       <c r="G41" t="n">
-        <v>377.7381506666496</v>
+        <v>377.5980629016099</v>
       </c>
       <c r="H41" t="n">
-        <v>374.802056112336</v>
+        <v>377.2414814521691</v>
       </c>
       <c r="I41" t="n">
-        <v>375.6525524383184</v>
+        <v>375.6520489912918</v>
       </c>
       <c r="J41" t="n">
-        <v>373.4658016075939</v>
+        <v>373.1607382299625</v>
       </c>
       <c r="K41" t="n">
-        <v>367.3088135997795</v>
+        <v>368.1866435545177</v>
       </c>
       <c r="L41" t="n">
-        <v>365.4374769994856</v>
+        <v>366.4469878434159</v>
       </c>
       <c r="M41" t="n">
-        <v>365.4665293643981</v>
+        <v>365.695455115244</v>
       </c>
       <c r="N41" t="n">
-        <v>368.9087149761986</v>
+        <v>368.7679267622218</v>
       </c>
       <c r="O41" t="n">
-        <v>369.8009194993341</v>
+        <v>369.4705220663695</v>
       </c>
       <c r="P41" t="n">
-        <v>369.4792392774218</v>
+        <v>368.9196468764673</v>
       </c>
       <c r="Q41" t="n">
-        <v>369.560389323328</v>
+        <v>369.9968560580417</v>
       </c>
       <c r="R41" t="n">
-        <v>368.3843606742559</v>
+        <v>368.5798724187675</v>
       </c>
       <c r="S41" t="n">
-        <v>370.062810974432</v>
+        <v>368.7932721597169</v>
       </c>
       <c r="T41" t="n">
-        <v>369.7737966996312</v>
+        <v>369.2439044421433</v>
       </c>
       <c r="U41" t="n">
-        <v>365.9988056250104</v>
+        <v>365.258055973261</v>
       </c>
       <c r="V41" t="n">
-        <v>365.6426686056788</v>
+        <v>363.648613293634</v>
       </c>
       <c r="W41" t="n">
-        <v>374.1860482794747</v>
+        <v>374.2031221833684</v>
       </c>
       <c r="X41" t="n">
-        <v>374.421034202911</v>
+        <v>376.3372323567596</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9368461650267</v>
+        <v>377.9368461650249</v>
       </c>
     </row>
     <row r="42">
@@ -8895,19 +8895,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>195.3836379878121</v>
+      </c>
+      <c r="K45" t="n">
+        <v>168.9241338344277</v>
+      </c>
+      <c r="L45" t="n">
+        <v>258.9241338344277</v>
+      </c>
+      <c r="M45" t="n">
+        <v>210</v>
+      </c>
+      <c r="N45" t="n">
         <v>120</v>
-      </c>
-      <c r="K45" t="n">
-        <v>120</v>
-      </c>
-      <c r="L45" t="n">
-        <v>200.5135220016722</v>
-      </c>
-      <c r="M45" t="n">
-        <v>197.0700141817973</v>
-      </c>
-      <c r="N45" t="n">
-        <v>142.677780273313</v>
       </c>
       <c r="O45" t="n">
         <v>120</v>
@@ -8922,19 +8922,19 @@
         <v>120</v>
       </c>
       <c r="S45" t="n">
-        <v>133.4949359368317</v>
+        <v>120</v>
       </c>
       <c r="T45" t="n">
-        <v>134.2925292587936</v>
+        <v>120</v>
       </c>
       <c r="U45" t="n">
-        <v>132.2971829412715</v>
+        <v>141.2264349158422</v>
       </c>
       <c r="V45" t="n">
-        <v>172.9469388833872</v>
+        <v>120</v>
       </c>
       <c r="W45" t="n">
-        <v>120</v>
+        <v>119.9999999999928</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -8975,13 +8975,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>172.0849179931953</v>
+        <v>120</v>
       </c>
       <c r="L46" t="n">
-        <v>192</v>
+        <v>130.9064970866034</v>
       </c>
       <c r="M46" t="n">
-        <v>192</v>
+        <v>178.3236411948889</v>
       </c>
       <c r="N46" t="n">
         <v>120</v>
@@ -9005,10 +9005,10 @@
         <v>120</v>
       </c>
       <c r="U46" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="V46" t="n">
-        <v>192</v>
+        <v>280.1953817477486</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I49" t="n">
         <v>40</v>
@@ -9245,7 +9245,7 @@
         <v>40</v>
       </c>
       <c r="X49" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>40</v>
       </c>
       <c r="X52" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9556,7 +9556,7 @@
         <v>40</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.117090694745198e-13</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -9588,13 +9588,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K54" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M54" t="n">
         <v>70</v>
@@ -9624,10 +9624,10 @@
         <v>100</v>
       </c>
       <c r="V54" t="n">
-        <v>70.12965416274794</v>
+        <v>70</v>
       </c>
       <c r="W54" t="n">
-        <v>40.12965416274794</v>
+        <v>40</v>
       </c>
       <c r="X54" t="n">
         <v>40</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I55" t="n">
         <v>40</v>
@@ -9686,13 +9686,13 @@
         <v>40</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>40</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>80</v>
@@ -10773,13 +10773,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-300.0000000000009</v>
+        <v>-300</v>
       </c>
       <c r="C2" t="n">
-        <v>-300.0000000000009</v>
+        <v>-300</v>
       </c>
       <c r="D2" t="n">
-        <v>-300.0000000000009</v>
+        <v>-300</v>
       </c>
       <c r="E2" t="n">
         <v>-300</v>
@@ -10788,10 +10788,10 @@
         <v>-300</v>
       </c>
       <c r="G2" t="n">
-        <v>-299.9999999999991</v>
+        <v>-300</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
